--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1382,10 +1406,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1429,28 +1453,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
+      <c r="C45" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="3">
+      <c r="D45" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1475,28 +1499,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2309,10 +2333,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2356,28 +2380,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="A77" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2402,28 +2426,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="3">
+      <c r="C79" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="3">
+      <c r="D79" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="3">
+      <c r="I79" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2743,10 +2767,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K90" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2790,28 +2814,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2836,28 +2860,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3119,10 +3143,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3166,28 +3190,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="A105" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3212,28 +3236,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="3">
+      <c r="I107" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3466,10 +3490,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="3" t="s">
+      <c r="K115" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3513,28 +3537,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="3">
+      <c r="A117" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3559,28 +3583,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="3">
+      <c r="C119" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="3">
+      <c r="D119" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="3">
+      <c r="I119" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3842,10 +3866,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="J128" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="3" t="s">
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3889,28 +3913,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
+      <c r="C130" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="3">
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3935,28 +3959,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4073,10 +4097,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
